--- a/biology/Zoologie/Jules_Desbrochers_des_Loges/Jules_Desbrochers_des_Loges.xlsx
+++ b/biology/Zoologie/Jules_Desbrochers_des_Loges/Jules_Desbrochers_des_Loges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jérôme-René-Charles-Jules Desbrochers des Loges (né le 18 juin 1836 à Béthune, mort le 10 août 1913 à Tours) est un entomologiste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jérôme-René-Charles-Jules Desbrochers des Loges (né le 18 juin 1836 à Béthune, mort le 10 août 1913 à Tours) est un entomologiste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desbrochers est fonctionnaire du Ministère des Finances[2] et travaille à Ardentes, à Gannat en 1875[3], à Vitry-aux-Loges[4] de 1880 à 1887 puis à partir de 1888 à Tours.
-Il collectionne tous les insectes d'Europe puis se spéciale dans les élatérides, les curculionides et les chrysomelidae. En 1891, il devient marchand-naturaliste et crée sa propre revue d'entomologie, Le Frelon. Dès 1879, il vend sa collection, principalement à Louis Bedel et Charles Oberthür[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desbrochers est fonctionnaire du Ministère des Finances et travaille à Ardentes, à Gannat en 1875, à Vitry-aux-Loges de 1880 à 1887 puis à partir de 1888 à Tours.
+Il collectionne tous les insectes d'Europe puis se spéciale dans les élatérides, les curculionides et les chrysomelidae. En 1891, il devient marchand-naturaliste et crée sa propre revue d'entomologie, Le Frelon. Dès 1879, il vend sa collection, principalement à Louis Bedel et Charles Oberthür.
 Il décrit de nombreuses espèces, dont notamment Diorhabda carinulata.
 </t>
         </is>
